--- a/summary and season files.xlsx
+++ b/summary and season files.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pennstateoffice365-my.sharepoint.com/personal/kxa15_psu_edu/Documents/Documents/ARK Research/DARPA/aaa tasks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deborahkhider/Documents/GitHub/cycles_to_netcdf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{CBD1EBDF-57D8-4B22-88D4-EFE6BB1E50B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F987513F-4CF4-4696-816D-CB28FB14FF80}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAABCD65-C3B8-0246-AD13-0B41D4EA9AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{811D7AA7-5147-49C6-8DE8-28A23EB113DB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21660" windowHeight="16220" activeTab="1" xr2:uid="{811D7AA7-5147-49C6-8DE8-28A23EB113DB}"/>
   </bookViews>
   <sheets>
     <sheet name="season file" sheetId="1" r:id="rId1"/>
@@ -715,31 +715,31 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="17.7109375" customWidth="1"/>
+    <col min="1" max="4" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>84</v>
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>85</v>
       </c>
@@ -753,7 +753,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -767,7 +767,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -781,7 +781,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -795,7 +795,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -809,7 +809,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -823,7 +823,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -837,7 +837,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -851,7 +851,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -865,7 +865,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -879,7 +879,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -893,7 +893,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -907,7 +907,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -921,7 +921,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
@@ -935,7 +935,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -949,7 +949,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -963,7 +963,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -977,7 +977,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -991,7 +991,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1085,32 +1085,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58141B51-DA1C-482E-B707-5B68E8C41410}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="17.7109375" customWidth="1"/>
+    <col min="1" max="4" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>84</v>
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>85</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>79</v>
       </c>
